--- a/progress/角倉/他大学のUI.xlsx
+++ b/progress/角倉/他大学のUI.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocs_2018021\Desktop\卒業研究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199D693A-45F9-4563-B840-41150D849085}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDF5ADB-A6E9-4C06-8447-F8E3513FB2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{46F55C41-3F48-465F-97D3-BC22DCE3325D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{46F55C41-3F48-465F-97D3-BC22DCE3325D}"/>
   </bookViews>
   <sheets>
     <sheet name="hikaku本体 " sheetId="1" r:id="rId1"/>
-    <sheet name="akannsasu" sheetId="4" r:id="rId2"/>
-    <sheet name="niigata" sheetId="5" r:id="rId3"/>
+    <sheet name="分析" sheetId="6" r:id="rId2"/>
+    <sheet name="分析 (2)" sheetId="8" r:id="rId3"/>
+    <sheet name="akannsasu" sheetId="4" r:id="rId4"/>
+    <sheet name="niigata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
   <si>
     <t>比較グラフ化</t>
     <rPh sb="0" eb="2">
@@ -718,6 +720,161 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シュウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>１　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>システム状態の視認性を高める 　　　　　　　　　　</t>
+    </r>
+  </si>
+  <si>
+    <t>(Visibility of system status)</t>
+  </si>
+  <si>
+    <t>２　実環境に合ったシステムを構築する</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Match between system and the real world)</t>
+  </si>
+  <si>
+    <t>３　ユーザーにコントロールの主導権と自由度を与える</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (User control and freedom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">４　一貫性と標準化を保持する </t>
+  </si>
+  <si>
+    <t>(Consistency and standards)</t>
+  </si>
+  <si>
+    <t>５　エラーの発生を事前に防止する</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Error prevention)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">６　記憶しなくても、見ればわかるようなデザインを行う </t>
+  </si>
+  <si>
+    <t>(Recognition rather than recall)</t>
+  </si>
+  <si>
+    <t>７　柔軟性と効率性を持たせる</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Flexibility and efficiency of use)</t>
+  </si>
+  <si>
+    <t>８　最小限で美しいデザインを施す</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Aesthetic and minimalist design)</t>
+  </si>
+  <si>
+    <t>９　ユーザーによるエラー認識、診断、回復をサポートする</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Help users recognize, diagnose, and recover from errors)</t>
+  </si>
+  <si>
+    <t>１０　ヘルプとマニュアルを用意する</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Help and documentation)</t>
+  </si>
+  <si>
+    <t>4段階で評価（角倉の見解）理由づけはなし｛１は悪い、４は良い｝</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スミクラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E3%83%A4%E3%82%B3
+%E3%83%96%E3%83%BB%E3%83%8B%E3%83%BC%E3%83%AB%E3%82%BB%E3%83%B3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金沢大学</t>
+    <rPh sb="0" eb="4">
+      <t>カナザワダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明(おそらく４）</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーによる対策と認識</t>
+    <rPh sb="7" eb="9">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面のデザインが同じ（恐らく全て｛何か元があると推定）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スイテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -726,7 +883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +921,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -791,7 +965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -961,13 +1135,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,6 +1205,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1037,20 +1244,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1365,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC6A64B-8A07-45F9-B464-79F46151B7C7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1384,7 +1595,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1401,7 +1612,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1410,10 +1621,10 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1424,10 +1635,10 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1438,10 +1649,10 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1452,10 +1663,10 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1466,10 +1677,10 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1481,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1493,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1525,6 +1736,348 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ED80BE-2778-4088-8868-FFAB104897E4}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="80.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1" xr:uid="{CBBCFBCD-7A0D-494E-8A15-D23BD85BEBC9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AD36EC-0DC5-4CD5-BC33-92BB7EEA23F8}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58DB00D-F679-4FC9-91E1-043CB326FEF1}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1557,10 +2110,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1568,15 +2121,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1679,7 +2232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D280760-8D6F-4E39-9783-B4FA4E251BC0}">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -1705,7 +2258,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1714,28 +2267,28 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
@@ -1744,7 +2297,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="2" t="s">
         <v>72</v>
       </c>
@@ -1753,28 +2306,28 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1783,28 +2336,28 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1813,21 +2366,21 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="2" t="s">
         <v>82</v>
       </c>
@@ -1836,7 +2389,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1845,91 +2398,91 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="21"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="21"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="21"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="21"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="21"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="22"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1938,70 +2491,70 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="21"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="21"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="21"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="21"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="21"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="21"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="21"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="22"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="2" t="s">
         <v>106</v>
       </c>
